--- a/biology/Médecine/Jacques_De_Busscher/Jacques_De_Busscher.xlsx
+++ b/biology/Médecine/Jacques_De_Busscher/Jacques_De_Busscher.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacques De Busscher, né le 16 avril 1902 à Gand et mort 16 octobre 1966 à Gand, est un psychiatre belge.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après avoir fait ses études à l'Université de Gand, il commence à enseigner à partir de 1935 à l'Université libre de Bruxelles[1]. Il est nommé à la chaire de psychiatrie à l'université de Gand en 1946 en succédant à René Nyssen, chaire qu'il occupe jusqu'à sa mort en 1966[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après avoir fait ses études à l'Université de Gand, il commence à enseigner à partir de 1935 à l'Université libre de Bruxelles. Il est nommé à la chaire de psychiatrie à l'université de Gand en 1946 en succédant à René Nyssen, chaire qu'il occupe jusqu'à sa mort en 1966.
 À Gand, il enseigne également la neurologie (depuis 1949) et l'ortho-pédagogie (depuis 1965). Entre 1956 et 1958, il est directeur de l'Institut supérieur de pédagogie. Parallèlement il assure les cours de médecine légale en régime néerlandais à l'ULB et le cours de prophylaxie criminelle à l'École des Sciences criminologiques Léon Cornil dont il devient président en 1966.
-Il travaille à l'hôpital civil De Bijloke à Gand. Il a fait une psychanalyse avec Westerman Holstijn (Amsterdam)[3] et il est un des seuls psychiatres belges à défendre la psychanalyse dans l'entre-deux-guerres[4]. Il est membre de la société psychanalytique néerlandaise, Nederlandse Vereniging voor Psychoanalyse de 1936 à 1964, et membre à titre personnel de l'Association psychanalytique internationale jusqu'en 1949[5]. Il s'oppose pourtant à la création d'une société psychanalytique belge, et y met des obstacles par ses prises de position et ses interventions dans le monde médical[5]
-Membre de la loge gantoise[Quoi ?] Le Septentrion, il attire l'attention[Quoi ?] du Sipo-SD pendant la Deuxième Guerre mondiale[6].
+Il travaille à l'hôpital civil De Bijloke à Gand. Il a fait une psychanalyse avec Westerman Holstijn (Amsterdam) et il est un des seuls psychiatres belges à défendre la psychanalyse dans l'entre-deux-guerres. Il est membre de la société psychanalytique néerlandaise, Nederlandse Vereniging voor Psychoanalyse de 1936 à 1964, et membre à titre personnel de l'Association psychanalytique internationale jusqu'en 1949. Il s'oppose pourtant à la création d'une société psychanalytique belge, et y met des obstacles par ses prises de position et ses interventions dans le monde médical
+Membre de la loge gantoise[Quoi ?] Le Septentrion, il attire l'attention[Quoi ?] du Sipo-SD pendant la Deuxième Guerre mondiale.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Membre dans des associations médicales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Société royale de médecine mentale de Belgique
 Société belge de neurologie
